--- a/KRX_futures_margin_table.xlsx
+++ b/KRX_futures_margin_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jp\Documents\GitHub\vault-public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B93656-F90D-4D06-8706-E37547C2FFA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CE261C-4174-486D-BF18-215FACD93718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37395" yWindow="1680" windowWidth="19470" windowHeight="19125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="3210" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K200f" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -72,7 +72,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +356,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +510,14 @@
         <v>43922</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43952</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
